--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/71.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/71.xlsx
@@ -479,13 +479,13 @@
         <v>-5.5163211116327</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.6679677448081</v>
+        <v>-11.67363671193857</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.7005849312026957</v>
+        <v>-0.6946279334097104</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.602549049749198</v>
+        <v>-8.644549157265455</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-4.872931872302145</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.28198365578221</v>
+        <v>-12.28716820770753</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.7033212224966164</v>
+        <v>-0.6962382866592427</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.516886112255785</v>
+        <v>-8.556725989803157</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-4.188183172282709</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.68396972223457</v>
+        <v>-12.68559316778694</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6728423414810781</v>
+        <v>-0.6671471897449274</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.961301148864297</v>
+        <v>-7.997147874044943</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-3.569824297030779</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.26368379976335</v>
+        <v>-13.26490138392763</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6664532976943158</v>
+        <v>-0.6628790990185246</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.700463199348588</v>
+        <v>-7.734974509639378</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-3.023672826381789</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.68296479826963</v>
+        <v>-13.68149846035136</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.8143570428972953</v>
+        <v>-0.8086749834639861</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.293947196112994</v>
+        <v>-7.324439169431374</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.582420461359653</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.35648522565939</v>
+        <v>-14.35609245657414</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6062679815309011</v>
+        <v>-0.601017968091369</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.819914187122619</v>
+        <v>-6.850275237412581</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.2404666259777</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.09710370511299</v>
+        <v>-15.09587302864587</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7523126197303555</v>
+        <v>-0.7479790674897441</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.55019965628022</v>
+        <v>-6.581660460008887</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-1.996787755428028</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.69860337457041</v>
+        <v>-15.69450548378095</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6974427785206815</v>
+        <v>-0.6948243179523362</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.207299152552572</v>
+        <v>-6.239558586754585</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-1.82687936855332</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.39650166985146</v>
+        <v>-16.39478657817919</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6505199651359352</v>
+        <v>-0.6467624742203598</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.101670453225526</v>
+        <v>-6.13180893436718</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-1.710086721152472</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.89826417626061</v>
+        <v>-16.89471616219051</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7321766579597807</v>
+        <v>-0.7281704132902126</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.881929242329996</v>
+        <v>-5.912539046373952</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-1.632293394827503</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.46089279858095</v>
+        <v>-17.45682109239717</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6823211687384878</v>
+        <v>-0.6788517084854304</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.593021395521626</v>
+        <v>-5.622308876978568</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-1.584028048353877</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.83607892111629</v>
+        <v>-17.82993863108352</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.683080522303308</v>
+        <v>-0.6798990927127685</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.059942100715066</v>
+        <v>-5.088496413212871</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-1.570058262499256</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.67965527011723</v>
+        <v>-18.67261161118838</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4368012135475989</v>
+        <v>-0.4326771381524552</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.600572470907424</v>
+        <v>-4.632570059052602</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.590284831500638</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.35582034268101</v>
+        <v>-19.34610585397245</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2976431266428925</v>
+        <v>-0.2930608206482884</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.490466204008507</v>
+        <v>-4.525802329378326</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-1.638445533536069</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.17044961009889</v>
+        <v>-20.16106242896137</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1119680877415334</v>
+        <v>-0.1062598437025409</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.135311304821005</v>
+        <v>-4.172650552525607</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.70111092381148</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.97930517196357</v>
+        <v>-20.96909317574702</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1653399787490664</v>
+        <v>0.172291991558023</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.912637418088928</v>
+        <v>-3.954100741188674</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.754441184838141</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.62331554874807</v>
+        <v>-21.61265841423491</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1108498143218025</v>
+        <v>0.116754442903421</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.757349614083215</v>
+        <v>-3.80229548973886</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.77658782763213</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.13769903509665</v>
+        <v>-22.12839040777618</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4457640133159971</v>
+        <v>0.453174256724414</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.301462536831471</v>
+        <v>-3.347914027313915</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.747891641235857</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.59149134389372</v>
+        <v>-22.57849068717188</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6900532920397638</v>
+        <v>0.6976991968993318</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.89133305801156</v>
+        <v>-2.941398024078321</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.657207898295779</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.19130210628456</v>
+        <v>-23.18090681782823</v>
       </c>
       <c r="F21" t="n">
-        <v>0.843128496865225</v>
+        <v>0.8515337552896132</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.733871931734121</v>
+        <v>-2.786175681586817</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.505225980878569</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.63187118921148</v>
+        <v>-23.62334810006152</v>
       </c>
       <c r="F22" t="n">
-        <v>1.011560972924031</v>
+        <v>1.021052892484282</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.658709021119772</v>
+        <v>-2.712583847313474</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.302107810130446</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.00311652859146</v>
+        <v>-23.99596813123988</v>
       </c>
       <c r="F23" t="n">
-        <v>1.209948637884706</v>
+        <v>1.22067123391208</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.390840504978056</v>
+        <v>-2.445042638742802</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.068108737807282</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.60658004347514</v>
+        <v>-24.60385684448406</v>
       </c>
       <c r="F24" t="n">
-        <v>1.408598148902216</v>
+        <v>1.421742820955309</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.456367480700895</v>
+        <v>-2.509600784055353</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-0.8251045709143895</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.76167146293823</v>
+        <v>-24.75991709435744</v>
       </c>
       <c r="F25" t="n">
-        <v>1.624228376705444</v>
+        <v>1.636482772165299</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.587264324512473</v>
+        <v>-2.638167197961104</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-0.5924551110937444</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.88544609400391</v>
+        <v>-24.88125655709456</v>
       </c>
       <c r="F26" t="n">
-        <v>1.703881947194505</v>
+        <v>1.715691204357742</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.659206528627757</v>
+        <v>-2.70890491021495</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.3870503404173861</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.87218359122524</v>
+        <v>-24.87134568384337</v>
       </c>
       <c r="F27" t="n">
-        <v>1.674319527377888</v>
+        <v>1.688302106812851</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.760252921960199</v>
+        <v>-2.804727474713542</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.2195674137267693</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.8412333873074</v>
+        <v>-24.8384709114078</v>
       </c>
       <c r="F28" t="n">
-        <v>1.690344506056161</v>
+        <v>1.701839547951196</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.776526654392465</v>
+        <v>-2.820582253454873</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.09662632482799056</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.92981590833452</v>
+        <v>-24.92916129319243</v>
       </c>
       <c r="F29" t="n">
-        <v>1.842398511259967</v>
+        <v>1.854050660789103</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.922649846408969</v>
+        <v>-2.964204815628608</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.01843231056193143</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.78930931423712</v>
+        <v>-24.79284423600438</v>
       </c>
       <c r="F30" t="n">
-        <v>1.81883236614486</v>
+        <v>1.830798730942198</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.149984592952701</v>
+        <v>-3.191186069995612</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.02068286394472239</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.36793354727616</v>
+        <v>-24.36903330071486</v>
       </c>
       <c r="F31" t="n">
-        <v>1.583668422501777</v>
+        <v>1.594037526352424</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.165210941157628</v>
+        <v>-3.204906803373742</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.02890212728551133</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.19802164099624</v>
+        <v>-24.2016482088834</v>
       </c>
       <c r="F32" t="n">
-        <v>1.680341986685082</v>
+        <v>1.691810843974434</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.532122728297001</v>
+        <v>-3.570273698777791</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.01840860652122168</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.00769883458607</v>
+        <v>-24.01550184707974</v>
       </c>
       <c r="F33" t="n">
-        <v>1.54478428306185</v>
+        <v>1.554682064010195</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.619736418913832</v>
+        <v>-3.653383637217068</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.0005321574115529394</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.50801800432875</v>
+        <v>-23.51613523209062</v>
       </c>
       <c r="F34" t="n">
-        <v>1.38602701880308</v>
+        <v>1.395453476849123</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.712626307575878</v>
+        <v>-3.747085248655301</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.01505155625748583</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.01661150946741</v>
+        <v>-23.02665330574701</v>
       </c>
       <c r="F35" t="n">
-        <v>1.385110557604159</v>
+        <v>1.394851230918403</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.71885824372854</v>
+        <v>-3.752623292757352</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.02159974628587945</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.59463349657573</v>
+        <v>-22.60374573935357</v>
       </c>
       <c r="F36" t="n">
-        <v>1.271927599537437</v>
+        <v>1.280660165532868</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.78204169724271</v>
+        <v>-3.809862840781378</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.01859625329967278</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.10821516909708</v>
+        <v>-22.12057430297967</v>
       </c>
       <c r="F37" t="n">
-        <v>1.20011631845057</v>
+        <v>1.208416838452224</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.776713129986128</v>
+        <v>-3.805647119266342</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.009472747884359208</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.55489517409722</v>
+        <v>-21.56440018596031</v>
       </c>
       <c r="F38" t="n">
-        <v>1.28825370118107</v>
+        <v>1.296593498091249</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.596628504398185</v>
+        <v>-3.624816232416422</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-0.00249416234133398</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.15019900095662</v>
+        <v>-21.16043718177885</v>
       </c>
       <c r="F39" t="n">
-        <v>1.151910459387334</v>
+        <v>1.159818210303737</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.566411469439482</v>
+        <v>-3.593617274744588</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.00773584532779042</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.68620778824585</v>
+        <v>-20.6951367387839</v>
       </c>
       <c r="F40" t="n">
-        <v>1.163654255036363</v>
+        <v>1.172727220905679</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.659432281129945</v>
+        <v>-3.687449809211239</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.03345096192056863</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.08233841197407</v>
+        <v>-20.09079603960983</v>
       </c>
       <c r="F41" t="n">
-        <v>1.185976631381505</v>
+        <v>1.195586381667332</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.512340258703153</v>
+        <v>-3.539781725459411</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.08960417222871458</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.46147522661374</v>
+        <v>-19.46634556327086</v>
       </c>
       <c r="F42" t="n">
-        <v>1.173054528476722</v>
+        <v>1.181263402358484</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.663202864348363</v>
+        <v>-3.689060162460772</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.182209018136953</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.93431365269164</v>
+        <v>-18.94163224998017</v>
       </c>
       <c r="F43" t="n">
-        <v>1.02490202951975</v>
+        <v>1.031016134946836</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.562955101489266</v>
+        <v>-3.58847199972779</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.3177642659743646</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.55784448447781</v>
+        <v>-18.5630814056145</v>
       </c>
       <c r="F44" t="n">
-        <v>1.004190006424139</v>
+        <v>1.010762342450686</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.476506625825349</v>
+        <v>-3.502193724000815</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.5022031876541097</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.2831679708584</v>
+        <v>-18.28771099994447</v>
       </c>
       <c r="F45" t="n">
-        <v>1.047826651795612</v>
+        <v>1.053927664919856</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.665166709774621</v>
+        <v>-3.692228499748469</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.7363387021352122</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.69244326663971</v>
+        <v>-17.69786348001619</v>
       </c>
       <c r="F46" t="n">
-        <v>1.115068719190717</v>
+        <v>1.120069978876256</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.609249484337609</v>
+        <v>-3.636494566551241</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.026455999957774</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.34118987369905</v>
+        <v>-17.34657081016699</v>
       </c>
       <c r="F47" t="n">
-        <v>1.08088471647097</v>
+        <v>1.088818651993056</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.487072114218622</v>
+        <v>-3.51413390419247</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.371968058895544</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.95631544706082</v>
+        <v>-16.96343765980673</v>
       </c>
       <c r="F48" t="n">
-        <v>1.062686415520971</v>
+        <v>1.06904927470205</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.492151927721212</v>
+        <v>-3.517433164508585</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-1.773189954404873</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.46204173787714</v>
+        <v>-16.46814275100138</v>
       </c>
       <c r="F49" t="n">
-        <v>1.004530406298024</v>
+        <v>1.010827803964894</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.400872392308697</v>
+        <v>-3.427475951683085</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.230188933530401</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.10661190032996</v>
+        <v>-16.11389122070996</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8577395068365913</v>
+        <v>0.8639059814750443</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.457208571436645</v>
+        <v>-3.483458638634305</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.735230028118261</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.54795024577067</v>
+        <v>-15.55484988936826</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7980255135754787</v>
+        <v>0.8035504653746871</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.5190697023638</v>
+        <v>-3.543997446974447</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.291209354690085</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.15393739174892</v>
+        <v>-15.16310200373813</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8865949422997556</v>
+        <v>0.8919104172534963</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.66439426390696</v>
+        <v>-3.689295823911923</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.892287001782802</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.60421778003053</v>
+        <v>-14.6155033450801</v>
       </c>
       <c r="F53" t="n">
-        <v>1.023632076144102</v>
+        <v>1.029575981634246</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.798996229422746</v>
+        <v>-3.822104143938392</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.535431917695525</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.22444935150058</v>
+        <v>-14.23485773225975</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9045968587071289</v>
+        <v>0.9097814106324524</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.917376831717633</v>
+        <v>-3.940393100113387</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.220931619424568</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.71949232319805</v>
+        <v>-13.72980905783733</v>
       </c>
       <c r="F55" t="n">
-        <v>0.707007824219799</v>
+        <v>0.711171176523468</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.069221360075971</v>
+        <v>-4.090902213581869</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.938387562930705</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.5548435226605</v>
+        <v>-13.56569704171629</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7965460833543636</v>
+        <v>0.8006963433551908</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.172297060348881</v>
+        <v>-4.193401852529743</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.691860939706988</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.18856016605753</v>
+        <v>-13.20237254555555</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7321450456759131</v>
+        <v>0.7379711204404812</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.315814884099882</v>
+        <v>-4.334968923157327</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.473452685494473</v>
       </c>
       <c r="E58" t="n">
-        <v>-12.93733196682765</v>
+        <v>-12.95289871490646</v>
       </c>
       <c r="F58" t="n">
-        <v>0.7909425777381048</v>
+        <v>0.7976196521873852</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.715326505315153</v>
+        <v>-4.734703113520907</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.276970203503057</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.5259979961463</v>
+        <v>-12.54034716006083</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7254941558323162</v>
+        <v>0.7318308304077117</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.901839451598383</v>
+        <v>-4.920338875513742</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.100308831326437</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.04713392740733</v>
+        <v>-12.06305416766287</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5795411637527541</v>
+        <v>0.5852101308832215</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.989138926947012</v>
+        <v>-5.006813535783342</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.92387305635827</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.00498980455981</v>
+        <v>-12.02314882860128</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6067338767550191</v>
+        <v>0.6130050898162059</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.216421304279376</v>
+        <v>-5.235392051097038</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-10.7430166327553</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.6617881778668</v>
+        <v>-11.68274895471641</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5242392765493031</v>
+        <v>0.5326445349736912</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.54412164440778</v>
+        <v>-5.564179052361304</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-11.53834313591516</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.42785491069084</v>
+        <v>-11.45126394817185</v>
       </c>
       <c r="F63" t="n">
-        <v>0.4557665326870758</v>
+        <v>0.4640932372944136</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.548638488888176</v>
+        <v>-5.569167219744002</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-12.29172597184694</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.20055944105563</v>
+        <v>-11.2226068790411</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3962096470600639</v>
+        <v>0.4052695206265384</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.502422659856882</v>
+        <v>-5.524457005539507</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-12.9948474623396</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.15548264237157</v>
+        <v>-11.17954629499467</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4126797640349553</v>
+        <v>0.4222764220179405</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.498023646102062</v>
+        <v>-5.519874699544904</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-13.62208100544894</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.0026561913001</v>
+        <v>-11.02630089023226</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3913654950086253</v>
+        <v>0.4016167681336968</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.575582448136448</v>
+        <v>-5.59592788675249</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-14.16904888646414</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.90738350352086</v>
+        <v>-10.93084491021324</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1818886495410082</v>
+        <v>0.1919304458206121</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.660446755156516</v>
+        <v>-5.684602053899501</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-14.61997903693902</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.89545641563205</v>
+        <v>-10.92109114459615</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1733524680882028</v>
+        <v>0.183237156733706</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.488466265027602</v>
+        <v>-5.511757471783033</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-14.96043555344773</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.85972752117698</v>
+        <v>-10.88582048074054</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1776205588146055</v>
+        <v>0.188827570047123</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.263592871418115</v>
+        <v>-5.289306154199266</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-15.19291997760131</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.8439512962527</v>
+        <v>-10.87217830117946</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.1214469149989431</v>
+        <v>-0.1108945189085119</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.092607396305173</v>
+        <v>-5.118949109622726</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-15.30454075082469</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.69574642808436</v>
+        <v>-10.72266420272695</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.0881008196610668</v>
+        <v>-0.07715565448538381</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.090146043370928</v>
+        <v>-5.11739112558456</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-15.30621543566487</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.86419199644601</v>
+        <v>-10.89388533929104</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.04056266804275944</v>
+        <v>-0.02932947220455847</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.934216716525971</v>
+        <v>-4.962757936720934</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-15.20128661656182</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.04464320651352</v>
+        <v>-11.07476859535233</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.1600168391706681</v>
+        <v>-0.1487967356353088</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.854615515248277</v>
+        <v>-4.884570704150145</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-14.99160313246317</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.39958862885556</v>
+        <v>-11.42788109529653</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.1944495956444076</v>
+        <v>-0.182771261509588</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.850203409190615</v>
+        <v>-4.881782043644858</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-14.69619369974772</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.82084656509093</v>
+        <v>-11.84865461632676</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.2530507431639735</v>
+        <v>-0.2420532087769236</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.655389942905731</v>
+        <v>-4.687950500073104</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-14.31404386194731</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.87824322074906</v>
+        <v>-11.90446710334104</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.3118220906204818</v>
+        <v>-0.2992796644981083</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.41319543263664</v>
+        <v>-4.44876721945761</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-13.86291101088925</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.29049365262933</v>
+        <v>-12.31692701206678</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.351007353025768</v>
+        <v>-0.3416725410996173</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.23274422256913</v>
+        <v>-4.26961214737143</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-13.35199807658256</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.11272954799825</v>
+        <v>-13.13998772251473</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.5408981134421629</v>
+        <v>-0.5294030715471274</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.12981253762748</v>
+        <v>-4.166510262492838</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-12.78357679786411</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.69157953353949</v>
+        <v>-13.72036950748844</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.5873234193189235</v>
+        <v>-0.5752130391903268</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.061287424553885</v>
+        <v>-4.100210840902337</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-12.17622692344382</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.25499369403033</v>
+        <v>-14.2827231914491</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.6200410841203969</v>
+        <v>-0.6089649959162967</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.763149504242099</v>
+        <v>-3.802779904944004</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-11.52740448379701</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.93119804350264</v>
+        <v>-14.95863951025889</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.6250685284116198</v>
+        <v>-0.6114001642448578</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.345531228196721</v>
+        <v>-3.383656014071827</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-10.84840404042072</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.86162872955558</v>
+        <v>-15.88705398167422</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.8518664905388404</v>
+        <v>-0.8397692027130855</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.191539562172339</v>
+        <v>-3.233094531391978</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-10.14378505761733</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.60609634604465</v>
+        <v>-16.63135139822634</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.9387993814079015</v>
+        <v>-0.9264140629196287</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.018171287942203</v>
+        <v>-3.061323518108532</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.408891185669342</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.54270659903889</v>
+        <v>-17.56703209771882</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.087789787746744</v>
+        <v>-1.074370177333975</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.734605100693257</v>
+        <v>-2.77846431521304</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.657595321562852</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.57223292530087</v>
+        <v>-18.5978152850536</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.12773440371685</v>
+        <v>-1.116697592421275</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.726173657663186</v>
+        <v>-2.772520409722897</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.890664220332358</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.83727668738265</v>
+        <v>-19.86395880057409</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.315137626593317</v>
+        <v>-1.304545953594361</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.455961619312802</v>
+        <v>-2.499414972444491</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.12451192284031</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.94671843019051</v>
+        <v>-20.97612374237303</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.280207362611592</v>
+        <v>-1.270113197120621</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.65133805461988</v>
+        <v>-2.696310114881209</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.376971348963421</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.48421301440861</v>
+        <v>-22.51242692703254</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.237447901530515</v>
+        <v>-1.22603141345253</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.432945350917048</v>
+        <v>-2.479907441210319</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-5.658381071958977</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.7680835079768</v>
+        <v>-23.79555115933874</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.482470349213418</v>
+        <v>-1.47262493747644</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.544020448226251</v>
+        <v>-2.587591632083516</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.996278876080861</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.3308986058908</v>
+        <v>-25.35930890305734</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.453562544538887</v>
+        <v>-1.44585117816511</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.467914891807298</v>
+        <v>-2.509509137935461</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.403482392251361</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.00608493909533</v>
+        <v>-27.0345345131704</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.554805322413955</v>
+        <v>-1.546452433200934</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.614967637325565</v>
+        <v>-2.656718991087829</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.900935971107038</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.64911657652059</v>
+        <v>-28.67811602731501</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.701753329509488</v>
+        <v>-1.694644209066431</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.829327911753146</v>
+        <v>-2.871746972960338</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.507797955329599</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.46965365587396</v>
+        <v>-30.50049912136907</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.811479919625994</v>
+        <v>-1.807800982527469</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.855132840654188</v>
+        <v>-2.89481561056746</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.22896753968549</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.23261078732943</v>
+        <v>-32.26218629944889</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.701203452790136</v>
+        <v>-1.695259547299992</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.22742556426151</v>
+        <v>-3.267461826351509</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.077878567554055</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.08577388536438</v>
+        <v>-34.11838681174312</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.018914365850302</v>
+        <v>-2.014476075186957</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.290255525598954</v>
+        <v>-3.327437665669456</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.049958948471476</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.06200463011157</v>
+        <v>-36.09506269478693</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.262391921797882</v>
+        <v>-2.258032184951587</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.752256708277783</v>
+        <v>-3.789713786707961</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.134256905601497</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.19965037659439</v>
+        <v>-38.23324522568626</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.329057927867951</v>
+        <v>-2.324397068056296</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.891375518273965</v>
+        <v>-3.928191073864898</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.320261992570354</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.44738929767329</v>
+        <v>-40.48107579288505</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.474068274142909</v>
+        <v>-2.471541459694456</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.321091082145098</v>
+        <v>-4.35721274568542</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.568431888538909</v>
       </c>
       <c r="E99" t="n">
-        <v>-42.55822200793626</v>
+        <v>-42.59240601065601</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.677038245098188</v>
+        <v>-2.677823783268692</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.521193838778038</v>
+        <v>-4.557708271403612</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.865516135526685</v>
       </c>
       <c r="E100" t="n">
-        <v>-44.74005427650991</v>
+        <v>-44.77451321758933</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.815070393958506</v>
+        <v>-2.813669517554442</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.571612297021526</v>
+        <v>-4.610208405798934</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.153780687100675</v>
       </c>
       <c r="E101" t="n">
-        <v>-46.76874587874389</v>
+        <v>-46.80391180417676</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.927912952151343</v>
+        <v>-2.926616814170012</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.070258835354347</v>
+        <v>-5.106563791134453</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.433121129661414</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.04776231131167</v>
+        <v>-49.08342574425253</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.226797133725107</v>
+        <v>-3.225095134355683</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.391818885449981</v>
+        <v>-5.431750409117245</v>
       </c>
     </row>
   </sheetData>
